--- a/public/static/course.xlsx
+++ b/public/static/course.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huang\Desktop\学习\谢修娟\文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vue_workspace\score_inquiry_system\public\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCE6584-9F4D-4BF7-BE50-384F35547F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28E912E-50B2-4C93-B191-5B01AC4A95BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7890" yWindow="5100" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>课程号</t>
   </si>
@@ -32,6 +32,14 @@
   </si>
   <si>
     <t>学年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程负责人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程负责人职工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -39,7 +47,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,6 +57,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -77,8 +93,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -356,19 +375,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:D2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -380,6 +401,12 @@
       </c>
       <c r="D1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
